--- a/оценка.xlsx
+++ b/оценка.xlsx
@@ -177,10 +177,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14370603674540683"/>
-          <c:y val="0.14071274298056158"/>
-          <c:w val="0.77540507436570427"/>
-          <c:h val="0.7066475626831743"/>
+          <c:x val="8.473298877245615E-2"/>
+          <c:y val="0.10033539663874237"/>
+          <c:w val="0.86297119731856031"/>
+          <c:h val="0.803553033957638"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -213,6 +213,65 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$AI$8:$AI$17</c:f>
@@ -299,8 +358,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1158,14 +1218,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>603017</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>185699</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>394447</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>92207</xdr:rowOff>
+      <xdr:rowOff>92208</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1454,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
